--- a/stats.xlsx
+++ b/stats.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -163,10 +163,25 @@
     <t xml:space="preserve">resnext50_32x4d_12</t>
   </si>
   <si>
+    <t xml:space="preserve">Хуже, чем 10й запуск с Radam lr=0.001</t>
+  </si>
+  <si>
     <t xml:space="preserve">resnext50_32x4d_00_fold0</t>
   </si>
   <si>
     <t xml:space="preserve">resnext50_32x4d_00_fold1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_00_fold2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_00_fold3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_00_fold4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_00_folds</t>
   </si>
 </sst>
 </file>
@@ -342,10 +357,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -946,12 +961,18 @@
       <c r="F15" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2" t="n">
+        <v>30</v>
+      </c>
       <c r="H15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="I15" s="2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="K15" s="2" t="n">
         <v>1</v>
       </c>
@@ -981,16 +1002,25 @@
       <c r="H16" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="I16" s="0" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>16</v>
+      </c>
       <c r="K16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="2" t="n">
         <v>0.485</v>
       </c>
+      <c r="M16" s="0" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>20</v>
@@ -1007,12 +1037,18 @@
       <c r="F17" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="0" t="n">
+        <v>44</v>
+      </c>
       <c r="H17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="I17" s="2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>9.43</v>
+      </c>
       <c r="K17" s="2" t="n">
         <v>1</v>
       </c>
@@ -1022,7 +1058,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>20</v>
@@ -1039,16 +1075,140 @@
       <c r="F18" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2" t="n">
+        <v>32</v>
+      </c>
       <c r="H18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="I18" s="2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>9.19</v>
+      </c>
       <c r="K18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="2" t="n">
+        <v>0.485</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>0.485</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>0.485</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>0.485</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2" t="n">
         <v>0.485</v>
       </c>
     </row>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="63">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -181,7 +181,39 @@
     <t xml:space="preserve">resnext50_32x4d_00_fold4</t>
   </si>
   <si>
-    <t xml:space="preserve">resnext50_32x4d_00_folds</t>
+    <t xml:space="preserve">resnext50_32x4d_00_folds0-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_00_folds0-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_01_fold0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hor. Flip p=1, rewrite predictions (turn off flip)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_01_fold1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hor. Flip p=0.5, rewrite predictions (turn off flip)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_01_fold2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">albu.ShiftScaleRotate(scale_limit=0.05, rotate_limit=10, p=0.5, border_mode=0),
+albu.RandomRain(p=0.05),
+albu.RandomFog(p=0.05),
+albu.Blur(p=0.1),
+albu.HueSaturationValue(hue_shift_limit=10, sat_shift_limit=20, val_shift_limit=20, p=0.2),
+albu.ChannelShuffle(p=0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_01_fold3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_01_fold4</t>
   </si>
 </sst>
 </file>
@@ -215,7 +247,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,7 +257,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFADD58A"/>
-        <bgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FF89C765"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF89C765"/>
+        <bgColor rgb="FFADD58A"/>
       </patternFill>
     </fill>
   </fills>
@@ -263,7 +301,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -278,6 +316,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -333,7 +379,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF89C765"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -357,15 +403,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
+      <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.44"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.05"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.52"/>
@@ -374,7 +420,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="59.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="71.74"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1185,11 +1231,15 @@
       <c r="F21" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2" t="n">
+        <v>47</v>
+      </c>
       <c r="H21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="2"/>
+      <c r="I21" s="2" t="n">
+        <v>1.49</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="n">
         <v>1</v>
@@ -1205,10 +1255,186 @@
       <c r="J22" s="0" t="n">
         <v>8.33</v>
       </c>
-      <c r="K22" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L22" s="2" t="n">
+        <v>0.485</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="4" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>0.485</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="68.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2" t="n">
+        <v>0.485</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2" t="n">
         <v>0.485</v>
       </c>
     </row>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="118">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -187,44 +187,504 @@
     <t xml:space="preserve">resnext50_32x4d_00_folds0-4</t>
   </si>
   <si>
+    <t xml:space="preserve">Median average :)</t>
+  </si>
+  <si>
     <t xml:space="preserve">resnext50_32x4d_01_fold0</t>
   </si>
   <si>
-    <t xml:space="preserve">Hor. Flip p=1, rewrite predictions (turn off flip)</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Hor. Flip p=1, rewrite predictions (turn off flip)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Флипать всегда ничего не меняет</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">resnext50_32x4d_01_fold1</t>
   </si>
   <si>
-    <t xml:space="preserve">Hor. Flip p=0.5, rewrite predictions (turn off flip)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resnext50_32x4d_01_fold2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">albu.ShiftScaleRotate(scale_limit=0.05, rotate_limit=10, p=0.5, border_mode=0),
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Hor. Flip p=0.5, rewrite predictions (turn off flip)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Сильно отличается от предыдущих результатов, очень странно</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_01_fold3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More augmentations
+albu.ShiftScaleRotate(scale_limit=0.10, rotate_limit=15, p=0.7, border_mode=0),
+albu.RandomRain(p=0.10),
+albu.RandomFog(p=0.10),
+albu.Blur(p=0.1),
+albu.HueSaturationValue(hue_shift_limit=10, sat_shift_limit=20, val_shift_limit=20, p=0.2),
+albu.ChannelShuffle(p=0.2)
+Hor. Flip p=0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_02_fold0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More augmentations, large lr
+albu.ShiftScaleRotate(scale_limit=0.10, rotate_limit=15, p=0.7, border_mode=0),
+albu.RandomRain(p=0.10),
+albu.RandomFog(p=0.10),
+albu.Blur(p=0.1),
+albu.HueSaturationValue(hue_shift_limit=10, sat_shift_limit=20, val_shift_limit=20, p=0.2),
+albu.ChannelShuffle(p=0.2)
+Hor. Flip p=0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_02_fold1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">albu.ShiftScaleRotate(scale_limit=0.10, rotate_limit=15, p=0.3, border_mode=0),
+albu.HueSaturationValue(hue_shift_limit=10, sat_shift_limit=20, val_shift_limit=20, p=0.2),
+Hor. Flip p=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_02_fold2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Removing ShiftScale
+albu.HueSaturationValue(hue_shift_limit=10, sat_shift_limit=20, val_shift_limit=20, p=0.2),
+albu.ChannelShuffle(p=0.2)
+Val – no albu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">График повторяет рутину из 00 фолдов – можно попробовать эти трансформы</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_02_fold3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changing augmentation routine
+albu.ShiftScaleRotate(scale_limit=0.10, rotate_limit=15, p=0.3, border_mode=0),
+albu.RandomRain(p=0.10),
+albu.RandomFog(p=0.10),
+albu.Blur(p=0.1),
+albu.HueSaturationValue(hue_shift_limit=10, sat_shift_limit=20, val_shift_limit=20, p=0.2),
+albu.ChannelShuffle(p=0.2)
+Val – no albu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_03_fold0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:00:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Rotate!
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">albu.Rotate(limit=15, p=0.5, border_mode=0),
 albu.RandomRain(p=0.05),
 albu.RandomFog(p=0.05),
+albu.Blur(p=0.05),
+albu.HueSaturationValue(hue_shift_limit=10, sat_shift_limit=20, val_shift_limit=20, p=0.1),
+albu.ChannelShuffle(p=0.1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Val – no albu
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_03_fold1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Rare rotates
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">albu.Rotate(limit=15, p=0.05, border_mode=0),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Val – no albu
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_03_fold2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Frequent Image transforms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">albu.RandomRain(p=0.5),
+albu.RandomFog(p=0.5),
+albu.Blur(p=0.5),
+albu.HueSaturationValue(hue_shift_limit=10, sat_shift_limit=20, val_shift_limit=20, p=0.5),
+albu.ChannelShuffle(p=0.3),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Val – no albu
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_03_fold3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changing augmentation routine, num_workers = 4
+albu.ShiftScaleRotate(scale_limit=0.10, rotate_limit=15, p=0.3, border_mode=0),
+albu.RandomRain(p=0.10),
+albu.RandomFog(p=0.10),
 albu.Blur(p=0.1),
 albu.HueSaturationValue(hue_shift_limit=10, sat_shift_limit=20, val_shift_limit=20, p=0.2),
+albu.ChannelShuffle(p=0.2)
+Val – no albu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_03_fold4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Infrequent Image transforms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">albu.RandomRain(p=0.5),
+albu.RandomFog(p=0.5),
+albu.Blur(p=0.5),
+albu.HueSaturationValue(hue_shift_limit=10, sat_shift_limit=20, val_shift_limit=20, p=0.5),
+albu.ChannelShuffle(p=0.3),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Val – no albu
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_04_fold0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">albu.Blur(p=0.05),
+albu.HueSaturationValue(hue_shift_limit=10, sat_shift_limit=20, val_shift_limit=20, p=0.2),
+albu.ChannelShuffle(p=0.1)
+Horiz. Flip p =0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_04_fold1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">albu.Blur(p=0.05),
+albu.HueSaturationValue(hue_shift_limit=10, sat_shift_limit=20, val_shift_limit=20, p=0.2),
+albu.ChannelShuffle(p=0.1)
+Horiz. Flip p =0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_04_fold2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">albu.Blur(p=0.1),
+albu.MultiplicativeNoise(p=0.1, per_channel=True),
+albu.HueSaturationValue(hue_shift_limit=10, sat_shift_limit=20, val_shift_limit=20, p=0.2),
+albu.ChannelShuffle(p=0.2)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Horiz. Flip p =0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_04_fold3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">albu.HueSaturationValue(hue_shift_limit=10, sat_shift_limit=20, val_shift_limit=20, p=0.2),
+albu.ChannelShuffle(p=0.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_04_fold3_gpu3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_04_fold4_gpu3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same as above but p = 0.5
+albu.HueSaturationValue(hue_shift_limit=10, sat_shift_limit=20, val_shift_limit=20, p=0.2),
+albu.ChannelShuffle(p=0.2)
+Flip p=0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_04_fold5_gpu3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same as fold3 but workers = 16 instead of 4
+albu.HueSaturationValue(hue_shift_limit=10, sat_shift_limit=20, val_shift_limit=20, p=0.2),
+albu.ChannelShuffle(p=0.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workers:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_05_fold0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">albu.Blur(p=0.05),
+albu.HueSaturationValue(hue_shift_limit=10, sat_shift_limit=20, val_shift_limit=20, p=0.2),
+albu.ChannelShuffle(p=0.1)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_05_fold1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">albu.Blur(p=0.3),
+albu.HueSaturationValue(hue_shift_limit=10, sat_shift_limit=20, val_shift_limit=20, p=0.5),
+albu.ChannelShuffle(p=0.3)
+Horiz. Flip p =0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_05_fold2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_05_fold3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_06_fold0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_06_fold1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_06_fold2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_06_fold3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext50_32x4d_06_fold4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">albu.MultiplicativeNoise(p=0.2, per_channel=True),
+albu.HueSaturationValue(hue_shift_limit=10, sat_shift_limit=20, val_shift_limit=20, p=0.3),
 albu.ChannelShuffle(p=0.1)</t>
   </si>
   <si>
-    <t xml:space="preserve">resnext50_32x4d_01_fold3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resnext50_32x4d_01_fold4</t>
+    <t xml:space="preserve">resnext50_32x4d_07_fold3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">albu.RandomBrightnessContrast(p=0.3),
+albu.MultiplicativeNoise(p=0.3, per_channel=True),
+albu.HueSaturationValue(p=0.3),
+albu.ChannelShuffle(p=0.2)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Horiz. Flip p =0</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="HH:MM:SS\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[HH]:MM:SS"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -246,8 +706,37 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +753,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF89C765"/>
         <bgColor rgb="FFADD58A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEF413D"/>
+        <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
   </fills>
@@ -301,7 +796,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -324,6 +819,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -382,7 +893,7 @@
       <rgbColor rgb="FF89C765"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFEF413D"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -403,15 +914,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F55" activeCellId="0" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.73"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.05"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.52"/>
@@ -1272,42 +1783,22 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="4" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M24" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>512</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="2" t="n">
-        <v>0.485</v>
-      </c>
-      <c r="M24" s="0" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
@@ -1323,11 +1814,12 @@
       <c r="F25" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="2"/>
+      <c r="I25" s="2" t="n">
+        <v>1.7</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2" t="n">
         <v>1</v>
@@ -1335,14 +1827,14 @@
       <c r="L25" s="2" t="n">
         <v>0.485</v>
       </c>
-      <c r="M25" s="0" t="s">
+      <c r="M25" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="68.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="B26" s="2" t="s">
         <v>20</v>
       </c>
@@ -1356,13 +1848,15 @@
         <v>512</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" s="2" t="n">
+        <v>3.17</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2" t="n">
         <v>1</v>
@@ -1371,33 +1865,37 @@
         <v>0.485</v>
       </c>
       <c r="M26" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="90.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>512</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="2"/>
+      <c r="I27" s="2" t="n">
+        <v>5.5</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2" t="n">
         <v>1</v>
@@ -1405,16 +1903,19 @@
       <c r="L27" s="2" t="n">
         <v>0.485</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M27" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="90.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>21</v>
@@ -1423,19 +1924,911 @@
         <v>512</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>7.1</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L28" s="2" t="n">
         <v>0.485</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="34.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="68.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="101.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="117.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="105.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="101.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="105.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="34.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N44" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="5"/>
+    </row>
+    <row r="50" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N50" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="K51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="K52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="K53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="34.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" s="2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
